--- a/va_facility_data_2025-02-20/Hoosier VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hoosier%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hoosier VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hoosier%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R22d7fb97ed3a49e7b9e911e8f09b6f93"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd3f119606822487d819d85385a638824"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raff3da6500a64ebfb3a4dcf30be01e2c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R05e0c84f404a4f01a225d4b96d26ae8e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R77bf6a68d4ac4998956f7f7313b55e77"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f7abf36caa34a9cae0916f413442fd2"/>
   </x:sheets>
 </x:workbook>
 </file>
